--- a/medicine/Mort/Décès_en_1946/Décès_en_1946.xlsx
+++ b/medicine/Mort/Décès_en_1946/Décès_en_1946.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1946</t>
+          <t>Décès_en_1946</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1946</t>
+          <t>Décès_en_1946</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,15 +540,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Gaston Bouy, peintre français (° 2 septembre 1866).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gaston Bouy, peintre français (° 2 septembre 1866).
 Charles Guilloux, peintre français (° 1866).
 Icilio Federico Joni, peintre et faussaire italien spécialisé dans la contrefaçon de tableaux de la peinture siennoise (° 1866).
 Joseph Vital Lacaze, peintre de paysages et de portraits français (° 15 mars 1874).
 Anton Loutskievitch, éditeur, journaliste, critique littéraire, historien et homme politique russe puis soviétique (° 29 janvier 1884).
-Maurice Rogerol, peintre et sculpteur français (° 1873).
-Janvier
-1er janvier : Raimond Lecourt, peintre français (° 25 janvier 1882).
+Maurice Rogerol, peintre et sculpteur français (° 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Raimond Lecourt, peintre français (° 25 janvier 1882).
 3 janvier : William Joyce, homme politique et journaliste américain d'origine britannique (° 24 avril 1906).
 6 janvier : Gaspard Maillol, peintre, graveur sur bois, aquarelliste, éditeur et papetier français (° 10 juillet 1880).
 17 janvier : Jenny Nyström, peintre et illustratrice suédoise (° 13 juin 1854).
@@ -553,9 +604,43 @@
 29 janvier ou  31 janvier: Vaclav Radimsky, peintre impressionniste austro-hongrois puis tchécoslovaque (° 6 octobre 1867).
 30 janvier :
 Maryse Hilsz, aviatrice française (° 7 mars 1901).
-Maurice Moisset, peintre paysagiste français (° 7 octobre 1860).
-Février
-5 février :
+Maurice Moisset, peintre paysagiste français (° 7 octobre 1860).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 février :
 Boniface de Castellane, diplomate français (° 18 janvier 1897).
 George Arliss, acteur britannique (° 10 avril 1868).
 6 février : Justus D. Barnes, acteur américain (° 2 octobre 1862).
@@ -566,9 +651,43 @@
 25 février : René Le Grevès, coureur cycliste français (° 6 juin 1910).
 27 février :
 Paule Gobillard, peintre post-impressionniste française (° 3 décembre 1867).
-Jeannine Guillou, peintre française (° 17 mai 1909).
-Mars
-5 mars :
+Jeannine Guillou, peintre française (° 17 mai 1909).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 mars :
 Hugo Breitner, homme politique autrichien (° 9 novembre 1873).
 Charles Statham, homme d'État néo-zélandais (° 10 mai 1875).
 7 mars : Bernard Naudin, peintre, dessinateur, caricaturiste et graveur français  (° 11 novembre 1876).
@@ -579,9 +698,43 @@
 23 mars : Gilbert Lewis, physicien et chimiste américain (° 23 octobre 1875).
 24 mars : Alexandre Alekhine, joueur d'échecs russe puis français (° 31 octobre 1892).
 25 mars : Aileen Manning, actrice américaine (° 20 janvier 1886).
-26 mars : Arthur Garguromin-Verona, peintre roumain (° 25 août 1868).
-Avril
-1er avril :
+26 mars : Arthur Garguromin-Verona, peintre roumain (° 25 août 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril :
 Noah Beery, acteur américain (° 17 janvier 1882).
 Leo Reuss, acteur et réalisateur autrichien (° 30 mars 1891).
 5 avril :
@@ -593,9 +746,43 @@
 22 avril : Lionel Atwill, acteur britannique (° 1er mars 1885).
 23 avril : Giuseppe Palanti, peintre, illustrateur, costumier, metteur en scène et professeur italien (° 30 juillet 1881).
 25 avril : Louise Artus-Perrelet, peintre, sculptrice et enseignante de dessin suisse (° 18 mars 1867).
-? avril : José Luis Zabala, footballeur international espagnol (° 14 décembre 1898).
-Mai
-1er mai : Edward Bairstow, organiste et compositeur anglais (° 22 août 1874).
+? avril : José Luis Zabala, footballeur international espagnol (° 14 décembre 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Edward Bairstow, organiste et compositeur anglais (° 22 août 1874).
 8 mai : Karl Etlinger, acteur austro-allemand (° 16 septembre 1879).
 11 mai : Pedro Henríquez Ureña, écrivain dominicain (° 29 juin 1884).
 20 mai : Enrico Gasparri, cardinal italien de la Curie romaine (° 25 juillet 1871).
@@ -606,9 +793,43 @@
 31 mai :
 Lucien Beauduin, sénateur libéral et industriel belge, ingénieur agronome de l'UCL (° 20 mai 1869).
 George Marston, homme politique, chef d'entreprise et philanthrope américain (° 22 octobre 1850).
-? mai : Riahi Rabih, footballeur français (° 1912).
-Juin
-1er juin : Firmin Maglin, peintre et lithographe français (° 1er octobre 1867).
+? mai : Riahi Rabih, footballeur français (° 1912).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Firmin Maglin, peintre et lithographe français (° 1er octobre 1867).
 3 juin : Chen Gongbo, homme politique chinois (° 19 octobre 1892).
 6 juin : Gerhart Hauptmann, écrivain allemand (° 15 novembre 1862).
 7 juin :
@@ -619,9 +840,43 @@
 Charles Marx, résistant FFI, et homme politique luxembourgeois (° 26 juillet 1903).
 21 juin : Heinrich Kaminski, compositeur allemand (° 4 juillet 1886).
 26 juin : Arthur Aylesworth, acteur américain (° 12 août 1883).
-27 juin : Albert Frederick Calvert, écrivain, ingénieur et explorateur britannique actif en Australie (° 20 juillet 1872).
-Juillet
-1er juillet : Frederick Koolhoven, pionnier et constructeur aéronautique néerlandais (° 11 janvier 1886).
+27 juin : Albert Frederick Calvert, écrivain, ingénieur et explorateur britannique actif en Australie (° 20 juillet 1872).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Frederick Koolhoven, pionnier et constructeur aéronautique néerlandais (° 11 janvier 1886).
 6 juillet :
 Jeanne Lanvin, grande couturière française (° 1er janvier 1867).
 Oswald Pilloud, peintre et dessinateur suisse (° 27 juillet 1873).
@@ -633,9 +888,43 @@
 21 juillet : Shefqet Verlaci, homme politique albanais (° 15 décembre 1877).
 26 juillet : Marguerite Delorme, peintre française (° 10 septembre 1876).
 27 juillet : Gertrude Stein, écrivain et poétesse américaine (° 3 février 1874).
-28 juillet : Ferdo Vesel, peintre serbe puis yougoslave (° 18 mai 1861).
-Août
-4 août : Fédor Löwenstein, peintre tchécoslovaque d'origine juive (° 13 avril 1901).
+28 juillet : Ferdo Vesel, peintre serbe puis yougoslave (° 18 mai 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4 août : Fédor Löwenstein, peintre tchécoslovaque d'origine juive (° 13 avril 1901).
 8 août : Vulcana, femme forte galloise (° 6 mai 1874).
 9 août :
 Alexeï Balalouïev, aviateur russe (° 29 septembre 1914).
@@ -651,17 +940,85 @@
 31 août :
 Harley Granville Barker, dramaturge, acteur, directeur de théâtre et metteur en scène britannique (° 25 novembre 1877).
 Paul von Klenau, compositeur danois (° 11 février 1883).
-H. G. Wells, écrivain britannique (° 21 septembre 1866).
-Septembre
-3 septembre : Paul Lincke, compositeur allemand (° 7 novembre 1886).
+H. G. Wells, écrivain britannique (° 21 septembre 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3 septembre : Paul Lincke, compositeur allemand (° 7 novembre 1886).
 13 septembre : Eugène Lanceray, graphiste, peintre, sculpteur, mosaïste et illustrateur russe (° 4 septembre 1875).
 16 septembre : Francisque Poulbot, affichiste, goguettier, dessinateur et illustrateur français (° 6 février 1879).
 20 septembre : Raimu, comédien français (° 18 décembre 1883).
 22 septembre : Ángel Zárraga, peintre mexicain (° 16 août 1886).
 24 septembre : Fabio Fabbi, peintre italien (° 18 juillet 1861).
-26 septembre : Émile Chaperon, peintre et décorateur français (° 17 mars 1868).
-Octobre
-10 octobre :
+26 septembre : Émile Chaperon, peintre et décorateur français (° 17 mars 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>10 octobre :
 Émile Goué, compositeur français (° 13 juin 1904).
 J. Malcolm Dunn, acteur britannique (° 25 mai 1869).
 15 octobre : Hermann Göring, maréchal du Troisième Reich (° 12 janvier 1893).
@@ -673,9 +1030,43 @@
 30 octobre :
 Mamie Smith, chanteuse de blues américaine (° 26 mai 1883).
 Charles Despiau, sculpteur français (° 4 novembre 1874).
-? octobre : Jules-Léon Perrichon, graveur et peintre français (° 30 septembre 1866).
-Novembre
-5 novembre : Zygmunt Stojowski, pianiste et compositeur polonais (° 4 mai 1870).
+? octobre : Jules-Léon Perrichon, graveur et peintre français (° 30 septembre 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5 novembre : Zygmunt Stojowski, pianiste et compositeur polonais (° 4 mai 1870).
 8 novembre : Aléxandros Karapános, diplomate et homme politique grec (° 1873).
 9 novembre : Liang Hongzhi, homme politique chinois (° 1882).
 10 novembre :
@@ -683,9 +1074,43 @@
 Nguyễn Văn Thinh, homme politique vietnamien, premier président de la République autonome de Cochinchine (° 1888).
 14 novembre : Manuel de Falla, compositeur espagnol (° 23 novembre 1876).
 16 novembre : Lucien Daudet, écrivain et peintre français (° 9 juin 1878).
-27 novembre :  Marcel Gouédard, footballeur français (° 15 janvier 1921).
-Décembre
-6 décembre : Maximilian Steinberg, compositeur russe de musique classique et professeur de musique (° 4 juillet 1883).
+27 novembre :  Marcel Gouédard, footballeur français (° 15 janvier 1921).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6 décembre : Maximilian Steinberg, compositeur russe de musique classique et professeur de musique (° 4 juillet 1883).
 9 décembre : Auguste Mallet, coureur cycliste français (° 3 mai 1913).
 10 décembre : José Sevenants, pianiste, compositeur et pédagogue belge (° 25 août 1868).
 13 décembre : Renée Falconetti, actrice française (° 21 juillet 1892).
@@ -706,9 +1131,43 @@
 29 décembre :
 James Thomas Milton Anderson, premier ministre de la Saskatchewan (° 23 juillet 1878).
 Lucien Fontayne, compositeur, pianiste, organiste et professeur de musique français (° 3 février 1865).
-30 décembre : Charles Virion, médailleur, sculpteur animalier, peintre et céramiste français (° 1er décembre 1865).
-Date précise inconnue
-Xie Jishi, homme politique chinois (° 1878).</t>
+30 décembre : Charles Virion, médailleur, sculpteur animalier, peintre et céramiste français (° 1er décembre 1865).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1946</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1946</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Xie Jishi, homme politique chinois (° 1878).</t>
         </is>
       </c>
     </row>
